--- a/gitBranches/finalTestbranch/identifiers/excel_output/BackgroundDatabases.xlsx
+++ b/gitBranches/finalTestbranch/identifiers/excel_output/BackgroundDatabases.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>6edab576-5247-472f-a2f4-0cb84561ca8b</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test123456242424242425</t>
         </is>
       </c>
     </row>

--- a/gitBranches/finalTestbranch/identifiers/excel_output/BackgroundDatabases.xlsx
+++ b/gitBranches/finalTestbranch/identifiers/excel_output/BackgroundDatabases.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,13 +742,6 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>6edab576-5247-472f-a2f4-0cb84561ca8b</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>test123456242424242425</t>
         </is>
       </c>
     </row>
